--- a/ML/insumo/cot_dolar.xlsx
+++ b/ML/insumo/cot_dolar.xlsx
@@ -20,19 +20,20 @@
     <sheet state="visible" name="Hoja 6" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="02-25" sheetId="16" r:id="rId19"/>
     <sheet state="visible" name="01-25" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="03-25" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId21" roundtripDataChecksum="Fktwpf1+cMVgLdKogS4Ysf3pLeQduEX+mIka049nVKQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="UPJh/WGZYabzPf7TuZ3DcFQdfEvXx/BDt5QpTAX3ZZg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
   <si>
     <t>mes</t>
   </si>
@@ -224,6 +225,10 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -617,7 +622,15 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>45741.0</v>
+      </c>
+      <c r="B18" s="9">
+        <f>ROUND(AVERAGE('03-25'!B2:B21),0)</f>
+        <v>1260</v>
+      </c>
+    </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -8065,6 +8078,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16">
+        <v>45744.0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1302.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16">
+        <v>45743.0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1292.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16">
+        <v>45742.0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1295.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16">
+        <v>45741.0</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1294.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16">
+        <v>45740.0</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1287.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16">
+        <v>45737.0</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1287.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16">
+        <v>45736.0</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1287.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16">
+        <v>45735.0</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1286.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16">
+        <v>45734.0</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1299.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16">
+        <v>45733.0</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1250.59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16">
+        <v>45730.0</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1237.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16">
+        <v>45729.0</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1233.55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16">
+        <v>45728.0</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1229.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16">
+        <v>45727.0</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1230.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16">
+        <v>45726.0</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1228.92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16">
+        <v>45723.0</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1221.93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16">
+        <v>45722.0</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1237.86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16">
+        <v>45721.0</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1235.31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16">
+        <v>45720.0</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1228.48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16">
+        <v>45719.0</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1228.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>

--- a/ML/insumo/cot_dolar.xlsx
+++ b/ML/insumo/cot_dolar.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Backup Tierras cx\Escritorio\Lourdes\Limpieza Sivys\limpieza_syvis\ML\insumo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="dolar_promedio" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="11-24" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="10-24" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="09-24" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="08-24" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="07-24" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="6-24" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="5-24" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="4-24" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="3-24" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="2-24" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="1-24" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="12-23" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="11-23" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="Hoja 6" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="02-25" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="01-25" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="03-25" sheetId="18" r:id="rId21"/>
+    <sheet name="dolar_promedio" sheetId="1" r:id="rId1"/>
+    <sheet name="11-24" sheetId="2" r:id="rId2"/>
+    <sheet name="10-24" sheetId="3" r:id="rId3"/>
+    <sheet name="09-24" sheetId="4" r:id="rId4"/>
+    <sheet name="08-24" sheetId="5" r:id="rId5"/>
+    <sheet name="07-24" sheetId="6" r:id="rId6"/>
+    <sheet name="6-24" sheetId="7" r:id="rId7"/>
+    <sheet name="5-24" sheetId="8" r:id="rId8"/>
+    <sheet name="4-24" sheetId="9" r:id="rId9"/>
+    <sheet name="3-24" sheetId="10" r:id="rId10"/>
+    <sheet name="2-24" sheetId="11" r:id="rId11"/>
+    <sheet name="1-24" sheetId="12" r:id="rId12"/>
+    <sheet name="12-23" sheetId="13" r:id="rId13"/>
+    <sheet name="11-23" sheetId="14" r:id="rId14"/>
+    <sheet name="Hoja 6" sheetId="15" r:id="rId15"/>
+    <sheet name="01-25" sheetId="17" r:id="rId16"/>
+    <sheet name="02-25" sheetId="16" r:id="rId17"/>
+    <sheet name="03-25" sheetId="18" r:id="rId18"/>
+    <sheet name="04-25" sheetId="20" r:id="rId19"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="UPJh/WGZYabzPf7TuZ3DcFQdfEvXx/BDt5QpTAX3ZZg="/>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>mes</t>
   </si>
@@ -53,66 +62,67 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="mmm-d"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF121212"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -120,152 +130,88 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="17" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -455,24 +401,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="3" max="26" width="10.63"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,171 +429,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1">
       <c r="A2" s="3">
-        <v>45231.0</v>
+        <v>45231</v>
       </c>
       <c r="B2" s="4">
         <f>AVERAGE('11-23'!B2:B22)</f>
-        <v>882.7942857</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>882.79428571428537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1">
       <c r="A3" s="3">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="B3" s="4">
         <f>AVERAGE('12-23'!B2:B22)</f>
-        <v>965.5866667</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>965.58666666666647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1">
       <c r="A4" s="3">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="B4" s="4">
         <f>AVERAGE('1-24'!B2:B23)</f>
-        <v>1153.543182</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>1153.5431818181819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1">
       <c r="A5" s="3">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="B5" s="4">
         <f>AVERAGE('2-24'!B2:B21)</f>
-        <v>1128.796</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>1128.7960000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1">
       <c r="A6" s="3">
-        <v>45352.0</v>
+        <v>45352</v>
       </c>
       <c r="B6" s="4">
         <f>AVERAGE('3-24'!B2:B22)</f>
-        <v>1019.488571</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>1019.4885714285715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1">
       <c r="A7" s="3">
-        <v>45383.0</v>
+        <v>45383</v>
       </c>
       <c r="B7" s="4">
         <f>AVERAGE('4-24'!B2:B21)</f>
-        <v>1035.9235</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>1035.9234999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1">
       <c r="A8" s="3">
-        <v>45413.0</v>
+        <v>45413</v>
       </c>
       <c r="B8" s="4">
         <f>AVERAGE('5-24'!B2:B22)</f>
-        <v>1184.433333</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>1184.4333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3">
-        <v>45444.0</v>
+        <v>45444</v>
       </c>
       <c r="B9" s="4">
         <f>AVERAGE('6-24'!B2:B21)</f>
-        <v>1281.3585</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>1281.3584999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1">
       <c r="A10" s="5">
-        <v>45497.0</v>
+        <v>45497</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE('07-24'!B2:B23)</f>
         <v>1351.65</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1">
       <c r="A11" s="6">
-        <v>45528.0</v>
+        <v>45528</v>
       </c>
       <c r="B11" s="7">
         <f>AVERAGE('08-24'!B2:B23)</f>
-        <v>1295.364545</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>1295.3645454545456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1">
       <c r="A12" s="6">
-        <v>45559.0</v>
+        <v>45559</v>
       </c>
       <c r="B12" s="7">
         <f>AVERAGE('09-24'!B2:B21)</f>
-        <v>1229.227</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>1229.2269999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1">
       <c r="A13" s="6">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="B13" s="8">
-        <v>1161.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1">
       <c r="A14" s="6">
-        <v>45620.0</v>
+        <v>45620</v>
       </c>
       <c r="B14" s="9">
-        <v>1106.0</v>
+        <v>1106</v>
       </c>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1">
       <c r="A15" s="6">
-        <v>46015.0</v>
+        <v>46015</v>
       </c>
       <c r="B15" s="1">
-        <v>1108.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1">
       <c r="A16" s="6">
-        <v>45682.0</v>
+        <v>45682</v>
       </c>
       <c r="B16" s="9">
         <f>ROUND(AVERAGE('01-25'!B1:B22),0)</f>
         <v>1165</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="6">
-        <v>45713.0</v>
+        <v>45713</v>
       </c>
       <c r="B17" s="9">
         <f>ROUND(AVERAGE('02-25'!B2:B20),0)</f>
         <v>1197</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="6">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="B18" s="9">
         <f>ROUND(AVERAGE('03-25'!B2:B21),0)</f>
         <v>1260</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="26">
+        <v>45748</v>
+      </c>
+      <c r="B19" s="27">
+        <f>AVERAGE('04-25'!B2:B22)</f>
+        <v>1248.3242857142857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1615,27 +1572,23 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -1643,184 +1596,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45380.0</v>
+        <v>45380</v>
       </c>
       <c r="B2" s="22">
         <v>1016.09</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45379.0</v>
+        <v>45379</v>
       </c>
       <c r="B3" s="22">
         <v>1016.09</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45378.0</v>
+        <v>45378</v>
       </c>
       <c r="B4" s="22">
         <v>1016.09</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45377.0</v>
+        <v>45377</v>
       </c>
       <c r="B5" s="22">
-        <v>1027.09</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>1027.0899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45376.0</v>
+        <v>45376</v>
       </c>
       <c r="B6" s="22">
         <v>1012.94</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45373.0</v>
+        <v>45373</v>
       </c>
       <c r="B7" s="22">
-        <v>1036.16</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>1036.1600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45372.0</v>
+        <v>45372</v>
       </c>
       <c r="B8" s="22">
         <v>1036.25</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45371.0</v>
+        <v>45371</v>
       </c>
       <c r="B9" s="22">
         <v>1042.43</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45370.0</v>
+        <v>45370</v>
       </c>
       <c r="B10" s="22">
-        <v>1032.36</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>1032.3599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45369.0</v>
+        <v>45369</v>
       </c>
       <c r="B11" s="22">
         <v>1023.89</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45366.0</v>
+        <v>45366</v>
       </c>
       <c r="B12" s="22">
-        <v>1027.63</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>1027.6300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45365.0</v>
+        <v>45365</v>
       </c>
       <c r="B13" s="22">
         <v>1015.67</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45364.0</v>
+        <v>45364</v>
       </c>
       <c r="B14" s="22">
         <v>1012.01</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="B15" s="22">
         <v>1036.19</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45362.0</v>
+        <v>45362</v>
       </c>
       <c r="B16" s="22">
         <v>980.98</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45359.0</v>
+        <v>45359</v>
       </c>
       <c r="B17" s="22">
         <v>1000.47</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45358.0</v>
+        <v>45358</v>
       </c>
       <c r="B18" s="22">
         <v>996.63</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45357.0</v>
+        <v>45357</v>
       </c>
       <c r="B19" s="22">
         <v>981.21</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45356.0</v>
+        <v>45356</v>
       </c>
       <c r="B20" s="22">
         <v>1016.08</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45355.0</v>
+        <v>45355</v>
       </c>
       <c r="B21" s="22">
         <v>1029.54</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="21">
-        <v>45352.0</v>
+        <v>45352</v>
       </c>
       <c r="B22" s="22">
         <v>1053.46</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2790,27 +2743,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -2842,177 +2791,177 @@
       <c r="Y1" s="23"/>
       <c r="Z1" s="23"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45350.0</v>
+        <v>45350</v>
       </c>
       <c r="B2" s="22">
         <v>1031.25</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45349.0</v>
+        <v>45349</v>
       </c>
       <c r="B3" s="22">
         <v>1044.95</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45348.0</v>
+        <v>45348</v>
       </c>
       <c r="B4" s="22">
         <v>1051.04</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45345.0</v>
+        <v>45345</v>
       </c>
       <c r="B5" s="22">
-        <v>1076.6</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>1076.5999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45344.0</v>
+        <v>45344</v>
       </c>
       <c r="B6" s="22">
         <v>1054.78</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45343.0</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="22">
         <v>1072.51</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45342.0</v>
+        <v>45342</v>
       </c>
       <c r="B8" s="22">
         <v>1080.31</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45341.0</v>
+        <v>45341</v>
       </c>
       <c r="B9" s="22">
-        <v>1108.61</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>1108.6099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45338.0</v>
+        <v>45338</v>
       </c>
       <c r="B10" s="22">
         <v>1064.71</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45337.0</v>
+        <v>45337</v>
       </c>
       <c r="B11" s="22">
-        <v>1086.86</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>1086.8599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45336.0</v>
+        <v>45336</v>
       </c>
       <c r="B12" s="22">
-        <v>1124.14</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>1124.1400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45335.0</v>
+        <v>45335</v>
       </c>
       <c r="B13" s="22">
-        <v>1173.36</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>1173.3599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45334.0</v>
+        <v>45334</v>
       </c>
       <c r="B14" s="22">
-        <v>1173.36</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>1173.3599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45331.0</v>
+        <v>45331</v>
       </c>
       <c r="B15" s="22">
-        <v>1173.36</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>1173.3599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45330.0</v>
+        <v>45330</v>
       </c>
       <c r="B16" s="22">
         <v>1183.55</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45329.0</v>
+        <v>45329</v>
       </c>
       <c r="B17" s="22">
-        <v>1199.41</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>1199.4100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45328.0</v>
+        <v>45328</v>
       </c>
       <c r="B18" s="22">
         <v>1194.74</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45327.0</v>
+        <v>45327</v>
       </c>
       <c r="B19" s="22">
         <v>1209.52</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45324.0</v>
+        <v>45324</v>
       </c>
       <c r="B20" s="22">
         <v>1237.43</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="B21" s="22">
         <v>1235.43</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3982,27 +3931,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -4010,191 +3955,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45321.0</v>
+        <v>45321</v>
       </c>
       <c r="B2" s="22">
         <v>1208.21</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45320.0</v>
+        <v>45320</v>
       </c>
       <c r="B3" s="22">
-        <v>1219.88</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>1219.8800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45317.0</v>
+        <v>45317</v>
       </c>
       <c r="B4" s="22">
         <v>1188.48</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45316.0</v>
+        <v>45316</v>
       </c>
       <c r="B5" s="22">
         <v>1229.32</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45315.0</v>
+        <v>45315</v>
       </c>
       <c r="B6" s="22">
         <v>1232.72</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45314.0</v>
+        <v>45314</v>
       </c>
       <c r="B7" s="22">
         <v>1233.22</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45313.0</v>
+        <v>45313</v>
       </c>
       <c r="B8" s="22">
-        <v>1241.41</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>1241.4100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45310.0</v>
+        <v>45310</v>
       </c>
       <c r="B9" s="22">
         <v>1251.67</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45309.0</v>
+        <v>45309</v>
       </c>
       <c r="B10" s="22">
         <v>1227.54</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45308.0</v>
+        <v>45308</v>
       </c>
       <c r="B11" s="22">
         <v>1221.49</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45307.0</v>
+        <v>45307</v>
       </c>
       <c r="B12" s="22">
         <v>1163.48</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45306.0</v>
+        <v>45306</v>
       </c>
       <c r="B13" s="22">
         <v>1125.3</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="B14" s="22">
-        <v>1096.39</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>1096.3900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45302.0</v>
+        <v>45302</v>
       </c>
       <c r="B15" s="22">
         <v>1119.17</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45301.0</v>
+        <v>45301</v>
       </c>
       <c r="B16" s="22">
         <v>1142.45</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45300.0</v>
+        <v>45300</v>
       </c>
       <c r="B17" s="22">
-        <v>1160.38</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>1160.3800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45299.0</v>
+        <v>45299</v>
       </c>
       <c r="B18" s="22">
-        <v>1141.62</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>1141.6199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45296.0</v>
+        <v>45296</v>
       </c>
       <c r="B19" s="22">
         <v>1104.93</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45295.0</v>
+        <v>45295</v>
       </c>
       <c r="B20" s="22">
         <v>1050.43</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45294.0</v>
+        <v>45294</v>
       </c>
       <c r="B21" s="22">
         <v>1033.56</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="21">
-        <v>45293.0</v>
+        <v>45293</v>
       </c>
       <c r="B22" s="22">
         <v>991.3</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="21">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="B23" s="22">
-        <v>995.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -5164,27 +5109,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5192,184 +5133,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45289.0</v>
+        <v>45289</v>
       </c>
       <c r="B2" s="22">
-        <v>995.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45288.0</v>
+        <v>45288</v>
       </c>
       <c r="B3" s="22">
         <v>950.24</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45287.0</v>
+        <v>45287</v>
       </c>
       <c r="B4" s="22">
         <v>932.59</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45286.0</v>
+        <v>45286</v>
       </c>
       <c r="B5" s="22">
         <v>939.7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45285.0</v>
+        <v>45285</v>
       </c>
       <c r="B6" s="22">
         <v>954.23</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45282.0</v>
+        <v>45282</v>
       </c>
       <c r="B7" s="22">
         <v>954.23</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45281.0</v>
+        <v>45281</v>
       </c>
       <c r="B8" s="22">
         <v>971.88</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45280.0</v>
+        <v>45280</v>
       </c>
       <c r="B9" s="22">
         <v>946.47</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45279.0</v>
+        <v>45279</v>
       </c>
       <c r="B10" s="22">
         <v>964.69</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45278.0</v>
+        <v>45278</v>
       </c>
       <c r="B11" s="22">
         <v>963.22</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45275.0</v>
+        <v>45275</v>
       </c>
       <c r="B12" s="22">
         <v>993.73</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45274.0</v>
+        <v>45274</v>
       </c>
       <c r="B13" s="22">
         <v>1003.94</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45273.0</v>
+        <v>45273</v>
       </c>
       <c r="B14" s="22">
         <v>1037.29</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="B15" s="22">
         <v>1011.46</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45271.0</v>
+        <v>45271</v>
       </c>
       <c r="B16" s="22">
         <v>993.53</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45268.0</v>
+        <v>45268</v>
       </c>
       <c r="B17" s="22">
         <v>986.37</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45267.0</v>
+        <v>45267</v>
       </c>
       <c r="B18" s="22">
         <v>986.37</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45266.0</v>
+        <v>45266</v>
       </c>
       <c r="B19" s="22">
         <v>936.93</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45265.0</v>
+        <v>45265</v>
       </c>
       <c r="B20" s="22">
         <v>934.71</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45264.0</v>
+        <v>45264</v>
       </c>
       <c r="B21" s="22">
         <v>913.05</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="21">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="22">
         <v>907.69</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -6339,27 +6280,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6367,184 +6304,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45259.0</v>
+        <v>45259</v>
       </c>
       <c r="B2" s="22">
         <v>838.16</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45258.0</v>
+        <v>45258</v>
       </c>
       <c r="B3" s="22">
         <v>867.12</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45257.0</v>
+        <v>45257</v>
       </c>
       <c r="B4" s="22">
         <v>889.15</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45254.0</v>
+        <v>45254</v>
       </c>
       <c r="B5" s="22">
         <v>972.75</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45253.0</v>
+        <v>45253</v>
       </c>
       <c r="B6" s="22">
         <v>1006.39</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45252.0</v>
+        <v>45252</v>
       </c>
       <c r="B7" s="22">
         <v>984.19</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45251.0</v>
+        <v>45251</v>
       </c>
       <c r="B8" s="22">
         <v>930.44</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45250.0</v>
+        <v>45250</v>
       </c>
       <c r="B9" s="22">
         <v>872.61</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45247.0</v>
+        <v>45247</v>
       </c>
       <c r="B10" s="22">
         <v>872.61</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45246.0</v>
+        <v>45246</v>
       </c>
       <c r="B11" s="22">
         <v>857.14</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45245.0</v>
+        <v>45245</v>
       </c>
       <c r="B12" s="22">
         <v>882.35</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45244.0</v>
+        <v>45244</v>
       </c>
       <c r="B13" s="22">
         <v>868.42</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45243.0</v>
+        <v>45243</v>
       </c>
       <c r="B14" s="22">
         <v>870.63</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45240.0</v>
+        <v>45240</v>
       </c>
       <c r="B15" s="22">
         <v>881.71</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45239.0</v>
+        <v>45239</v>
       </c>
       <c r="B16" s="22">
         <v>863.3</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45238.0</v>
+        <v>45238</v>
       </c>
       <c r="B17" s="22">
         <v>840.97</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45237.0</v>
+        <v>45237</v>
       </c>
       <c r="B18" s="22">
         <v>848.8</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45236.0</v>
+        <v>45236</v>
       </c>
       <c r="B19" s="22">
         <v>844.01</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45233.0</v>
+        <v>45233</v>
       </c>
       <c r="B20" s="22">
         <v>844.01</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45232.0</v>
+        <v>45232</v>
       </c>
       <c r="B21" s="22">
         <v>863.64</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="21">
-        <v>45231.0</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="22">
         <v>840.28</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -7514,24 +7451,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7539,556 +7475,559 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="14">
-        <v>45656.0</v>
+        <v>45656</v>
       </c>
       <c r="B2" s="15">
-        <v>1170.41</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1170.4100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="14">
-        <v>45653.0</v>
+        <v>45653</v>
       </c>
       <c r="B3" s="15">
         <v>1170.56</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="14">
-        <v>45652.0</v>
+        <v>45652</v>
       </c>
       <c r="B4" s="15">
-        <v>1170.89</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1170.8900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="14">
-        <v>45651.0</v>
+        <v>45651</v>
       </c>
       <c r="B5" s="15">
         <v>1160.97</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="14">
-        <v>45650.0</v>
+        <v>45650</v>
       </c>
       <c r="B6" s="15">
         <v>1160.97</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="14">
-        <v>45649.0</v>
+        <v>45649</v>
       </c>
       <c r="B7" s="15">
         <v>1162.3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="14">
-        <v>45646.0</v>
+        <v>45646</v>
       </c>
       <c r="B8" s="15">
         <v>1142.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="14">
-        <v>45645.0</v>
+        <v>45645</v>
       </c>
       <c r="B9" s="15">
         <v>1131.19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="14">
-        <v>45644.0</v>
+        <v>45644</v>
       </c>
       <c r="B10" s="15">
         <v>1131.22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="14">
-        <v>45643.0</v>
+        <v>45643</v>
       </c>
       <c r="B11" s="15">
         <v>1145.26</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="14">
-        <v>45642.0</v>
+        <v>45642</v>
       </c>
       <c r="B12" s="15">
         <v>1100.27</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="14">
-        <v>45639.0</v>
+        <v>45639</v>
       </c>
       <c r="B13" s="15">
         <v>1073.08</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="14">
-        <v>45638.0</v>
+        <v>45638</v>
       </c>
       <c r="B14" s="15">
         <v>1058.21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="14">
-        <v>45637.0</v>
+        <v>45637</v>
       </c>
       <c r="B15" s="15">
         <v>1057.72</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="14">
-        <v>45636.0</v>
+        <v>45636</v>
       </c>
       <c r="B16" s="15">
         <v>1060.52</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45635.0</v>
+        <v>45635</v>
       </c>
       <c r="B17" s="15">
         <v>1049.31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45632.0</v>
+        <v>45632</v>
       </c>
       <c r="B18" s="15">
         <v>1049.33</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="B19" s="15">
-        <v>1062.16</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1062.1600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="B20" s="15">
-        <v>1076.34</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1076.3399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="16">
-        <v>45629.0</v>
+        <v>45629</v>
       </c>
       <c r="B21" s="15">
-        <v>1075.65</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1075.6500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="16">
-        <v>45628.0</v>
+        <v>45628</v>
       </c>
       <c r="B22" s="15">
-        <v>1068.89</v>
+        <v>1068.8900000000001</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="16">
+        <v>45687</v>
+      </c>
+      <c r="B1" s="15">
+        <v>1164.8900000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="16">
-        <v>45715.0</v>
+        <v>45686</v>
       </c>
       <c r="B2" s="15">
-        <v>1215.29</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1163.3599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="16">
-        <v>45714.0</v>
+        <v>45685</v>
       </c>
       <c r="B3" s="15">
-        <v>1211.56</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1161.3800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="16">
-        <v>45713.0</v>
+        <v>45684</v>
       </c>
       <c r="B4" s="15">
-        <v>1211.96</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1162.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="16">
-        <v>45712.0</v>
+        <v>45681</v>
       </c>
       <c r="B5" s="15">
-        <v>1207.48</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1155.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="16">
-        <v>45709.0</v>
+        <v>45680</v>
       </c>
       <c r="B6" s="15">
-        <v>1205.88</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1167.3499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="16">
-        <v>45708.0</v>
+        <v>45679</v>
       </c>
       <c r="B7" s="15">
-        <v>1206.06</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1172.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="16">
-        <v>45707.0</v>
+        <v>45678</v>
       </c>
       <c r="B8" s="15">
-        <v>1201.86</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1167.6099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="16">
-        <v>45706.0</v>
+        <v>45677</v>
       </c>
       <c r="B9" s="15">
-        <v>1203.16</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1165.9000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="16">
-        <v>45705.0</v>
+        <v>45674</v>
       </c>
       <c r="B10" s="15">
-        <v>1210.09</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1165.8399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="16">
-        <v>45702.0</v>
+        <v>45673</v>
       </c>
       <c r="B11" s="15">
-        <v>1183.88</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1166.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="16">
-        <v>45701.0</v>
+        <v>45672</v>
       </c>
       <c r="B12" s="15">
-        <v>1187.89</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1164.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="16">
-        <v>45700.0</v>
+        <v>45671</v>
       </c>
       <c r="B13" s="15">
-        <v>1186.35</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1162.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="16">
-        <v>45699.0</v>
+        <v>45670</v>
       </c>
       <c r="B14" s="15">
-        <v>1180.85</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1163.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="16">
-        <v>45698.0</v>
+        <v>45667</v>
       </c>
       <c r="B15" s="15">
-        <v>1184.07</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1164.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="16">
-        <v>45695.0</v>
+        <v>45666</v>
       </c>
       <c r="B16" s="15">
-        <v>1194.47</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1164.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45694.0</v>
+        <v>45665</v>
       </c>
       <c r="B17" s="15">
-        <v>1189.03</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1164.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45693.0</v>
+        <v>45664</v>
       </c>
       <c r="B18" s="15">
-        <v>1191.94</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1164.3699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45692.0</v>
+        <v>45663</v>
       </c>
       <c r="B19" s="15">
-        <v>1188.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1165.0899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45691.0</v>
+        <v>45660</v>
       </c>
       <c r="B20" s="15">
-        <v>1178.82</v>
+        <v>1165.8800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16">
+        <v>45659</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1162.1199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16">
+        <v>45658</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1170.4100000000001</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="16">
-        <v>45687.0</v>
-      </c>
-      <c r="B1" s="15">
-        <v>1164.89</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="16">
-        <v>45686.0</v>
+        <v>45715</v>
       </c>
       <c r="B2" s="15">
-        <v>1163.36</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1215.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="16">
-        <v>45685.0</v>
+        <v>45714</v>
       </c>
       <c r="B3" s="15">
-        <v>1161.38</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1211.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="16">
-        <v>45684.0</v>
+        <v>45713</v>
       </c>
       <c r="B4" s="15">
-        <v>1162.22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1211.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="16">
-        <v>45681.0</v>
+        <v>45712</v>
       </c>
       <c r="B5" s="15">
-        <v>1155.75</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1207.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="16">
-        <v>45680.0</v>
+        <v>45709</v>
       </c>
       <c r="B6" s="15">
-        <v>1167.35</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1205.8800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="16">
-        <v>45679.0</v>
+        <v>45708</v>
       </c>
       <c r="B7" s="15">
-        <v>1172.67</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1206.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="16">
-        <v>45678.0</v>
+        <v>45707</v>
       </c>
       <c r="B8" s="15">
-        <v>1167.61</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1201.8599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="16">
-        <v>45677.0</v>
+        <v>45706</v>
       </c>
       <c r="B9" s="15">
-        <v>1165.9</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1203.1600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="16">
-        <v>45674.0</v>
+        <v>45705</v>
       </c>
       <c r="B10" s="15">
-        <v>1165.84</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1210.0899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="16">
-        <v>45673.0</v>
+        <v>45702</v>
       </c>
       <c r="B11" s="15">
-        <v>1166.03</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1183.8800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="16">
-        <v>45672.0</v>
+        <v>45701</v>
       </c>
       <c r="B12" s="15">
-        <v>1164.05</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1187.8900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="16">
-        <v>45671.0</v>
+        <v>45700</v>
       </c>
       <c r="B13" s="15">
-        <v>1162.93</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1186.3499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="16">
-        <v>45670.0</v>
+        <v>45699</v>
       </c>
       <c r="B14" s="15">
-        <v>1163.21</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1180.8499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="16">
-        <v>45667.0</v>
+        <v>45698</v>
       </c>
       <c r="B15" s="15">
-        <v>1164.01</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1184.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="16">
-        <v>45666.0</v>
+        <v>45695</v>
       </c>
       <c r="B16" s="15">
-        <v>1164.19</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1194.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45665.0</v>
+        <v>45694</v>
       </c>
       <c r="B17" s="15">
-        <v>1164.72</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1189.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45664.0</v>
+        <v>45693</v>
       </c>
       <c r="B18" s="15">
-        <v>1164.37</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1191.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45663.0</v>
+        <v>45692</v>
       </c>
       <c r="B19" s="15">
-        <v>1165.09</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45660.0</v>
+        <v>45691</v>
       </c>
       <c r="B20" s="15">
-        <v>1165.88</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="16">
-        <v>45659.0</v>
-      </c>
-      <c r="B21" s="15">
-        <v>1162.12</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="16">
-        <v>45658.0</v>
-      </c>
-      <c r="B22" s="15">
-        <v>1170.41</v>
+        <v>1178.82</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8096,182 +8035,375 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="16">
-        <v>45744.0</v>
+        <v>45744</v>
       </c>
       <c r="B2" s="15">
         <v>1302.44</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="16">
-        <v>45743.0</v>
+        <v>45743</v>
       </c>
       <c r="B3" s="15">
         <v>1292.29</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="16">
-        <v>45742.0</v>
+        <v>45742</v>
       </c>
       <c r="B4" s="15">
-        <v>1295.63</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1295.6300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="16">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="B5" s="15">
         <v>1294.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="16">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="B6" s="15">
         <v>1287.22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="16">
-        <v>45737.0</v>
+        <v>45737</v>
       </c>
       <c r="B7" s="15">
         <v>1287.22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="16">
-        <v>45736.0</v>
+        <v>45736</v>
       </c>
       <c r="B8" s="15">
-        <v>1287.59</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1287.5899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="16">
-        <v>45735.0</v>
+        <v>45735</v>
       </c>
       <c r="B9" s="15">
-        <v>1286.38</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1286.3800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="16">
-        <v>45734.0</v>
+        <v>45734</v>
       </c>
       <c r="B10" s="15">
         <v>1299.32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="16">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="B11" s="15">
-        <v>1250.59</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1250.5899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="16">
-        <v>45730.0</v>
+        <v>45730</v>
       </c>
       <c r="B12" s="15">
         <v>1237.78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="16">
-        <v>45729.0</v>
+        <v>45729</v>
       </c>
       <c r="B13" s="15">
         <v>1233.55</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="16">
-        <v>45728.0</v>
+        <v>45728</v>
       </c>
       <c r="B14" s="15">
-        <v>1229.34</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1229.3399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="16">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="B15" s="15">
-        <v>1230.38</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1230.3800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="16">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="B16" s="15">
         <v>1228.92</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45723.0</v>
+        <v>45723</v>
       </c>
       <c r="B17" s="15">
         <v>1221.93</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45722.0</v>
+        <v>45722</v>
       </c>
       <c r="B18" s="15">
-        <v>1237.86</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1237.8599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45721.0</v>
+        <v>45721</v>
       </c>
       <c r="B19" s="15">
         <v>1235.31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="B20" s="15">
         <v>1228.48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="16">
-        <v>45719.0</v>
+        <v>45719</v>
       </c>
       <c r="B21" s="15">
         <v>1228.48</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24">
+        <v>45776</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1173.1500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24">
+        <v>45775</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1176.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24">
+        <v>45772</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1184.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24">
+        <v>45771</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1186.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24">
+        <v>45770</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24">
+        <v>45769</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1140.3800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24">
+        <v>45768</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1122.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24">
+        <v>45765</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1165.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24">
+        <v>45764</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1165.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24">
+        <v>45763</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1165.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24">
+        <v>45762</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1237.9000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="24">
+        <v>45761</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1253.4000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24">
+        <v>45758</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1333.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="24">
+        <v>45757</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1364.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="24">
+        <v>45756</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1341.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24">
+        <v>45755</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1376.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="24">
+        <v>45754</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1370.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24">
+        <v>45751</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1340.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="24">
+        <v>45750</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1319.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="24">
+        <v>45749</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1314.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="24">
+        <v>45748</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1314.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8279,190 +8411,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="11">
-        <v>45625.0</v>
+        <v>45625</v>
       </c>
       <c r="B2" s="12">
         <v>1075.76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="11">
-        <v>45624.0</v>
+        <v>45624</v>
       </c>
       <c r="B3" s="12">
-        <v>1075.15</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1075.1500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="11">
-        <v>45623.0</v>
+        <v>45623</v>
       </c>
       <c r="B4" s="12">
-        <v>1074.61</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1074.6099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="11">
-        <v>45622.0</v>
+        <v>45622</v>
       </c>
       <c r="B5" s="12">
-        <v>1076.12</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1076.1199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="11">
-        <v>45621.0</v>
+        <v>45621</v>
       </c>
       <c r="B6" s="12">
         <v>1077.58</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="11">
-        <v>45618.0</v>
+        <v>45618</v>
       </c>
       <c r="B7" s="12">
-        <v>1080.4</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1080.4000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="11">
-        <v>45617.0</v>
+        <v>45617</v>
       </c>
       <c r="B8" s="12">
         <v>1078.95</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="11">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="B9" s="12">
-        <v>1074.86</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1074.8599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="11">
-        <v>45615.0</v>
+        <v>45615</v>
       </c>
       <c r="B10" s="12">
-        <v>1075.12</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1075.1199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="11">
-        <v>45614.0</v>
+        <v>45614</v>
       </c>
       <c r="B11" s="12">
         <v>1096.02</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="11">
-        <v>45611.0</v>
+        <v>45611</v>
       </c>
       <c r="B12" s="12">
         <v>1096.02</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="11">
-        <v>45610.0</v>
+        <v>45610</v>
       </c>
       <c r="B13" s="12">
         <v>1105.75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="11">
-        <v>45609.0</v>
+        <v>45609</v>
       </c>
       <c r="B14" s="12">
-        <v>1121.11</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1121.1099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="11">
-        <v>45608.0</v>
+        <v>45608</v>
       </c>
       <c r="B15" s="12">
-        <v>1124.4</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1124.4000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="11">
-        <v>45607.0</v>
+        <v>45607</v>
       </c>
       <c r="B16" s="12">
         <v>1131.23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="13">
-        <v>45604.0</v>
+        <v>45604</v>
       </c>
       <c r="B17" s="12">
         <v>1130.2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="13">
-        <v>45603.0</v>
+        <v>45603</v>
       </c>
       <c r="B18" s="12">
         <v>1135.99</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="13">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="B19" s="12">
         <v>1145.69</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="13">
-        <v>45601.0</v>
+        <v>45601</v>
       </c>
       <c r="B20" s="12">
         <v>1153.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="13">
-        <v>45600.0</v>
+        <v>45600</v>
       </c>
       <c r="B21" s="12">
         <v>1151.54</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="13">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="B22" s="12">
         <v>1146.17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8470,198 +8603,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="14">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="B2" s="15">
         <v>1138.32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="14">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="B3" s="15">
         <v>1138.18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="14">
-        <v>45593.0</v>
+        <v>45593</v>
       </c>
       <c r="B4" s="15">
         <v>1134.18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="14">
-        <v>45590.0</v>
+        <v>45590</v>
       </c>
       <c r="B5" s="15">
         <v>1141.81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="14">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="B6" s="15">
-        <v>1160.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="14">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="B7" s="15">
         <v>1161.99</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="14">
-        <v>45587.0</v>
+        <v>45587</v>
       </c>
       <c r="B8" s="15">
         <v>1161.97</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="14">
-        <v>45586.0</v>
+        <v>45586</v>
       </c>
       <c r="B9" s="15">
-        <v>1167.91</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1167.9100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="14">
-        <v>45583.0</v>
+        <v>45583</v>
       </c>
       <c r="B10" s="15">
         <v>1159.05</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="14">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="B11" s="15">
-        <v>1159.6</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1159.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="14">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="B12" s="15">
-        <v>1159.89</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1159.8900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="14">
-        <v>45580.0</v>
+        <v>45580</v>
       </c>
       <c r="B13" s="15">
-        <v>1139.91</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1139.9100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="14">
-        <v>45579.0</v>
+        <v>45579</v>
       </c>
       <c r="B14" s="15">
-        <v>1143.88</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1143.8800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="14">
-        <v>45576.0</v>
+        <v>45576</v>
       </c>
       <c r="B15" s="15">
-        <v>1134.84</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1134.8399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="14">
-        <v>45575.0</v>
+        <v>45575</v>
       </c>
       <c r="B16" s="15">
-        <v>1134.84</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1134.8399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="B17" s="15">
-        <v>1147.4</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1147.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45573.0</v>
+        <v>45573</v>
       </c>
       <c r="B18" s="15">
         <v>1169.54</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45572.0</v>
+        <v>45572</v>
       </c>
       <c r="B19" s="15">
         <v>1184.07</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45569.0</v>
+        <v>45569</v>
       </c>
       <c r="B20" s="15">
         <v>1187.52</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="16">
-        <v>45568.0</v>
+        <v>45568</v>
       </c>
       <c r="B21" s="15">
         <v>1191.74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="16">
-        <v>45567.0</v>
+        <v>45567</v>
       </c>
       <c r="B22" s="15">
         <v>1207.51</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="16">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="B23" s="15">
         <v>1220.07</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -8669,190 +8803,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="16">
-        <v>45562.0</v>
+        <v>45562</v>
       </c>
       <c r="B2" s="18">
         <v>1207.75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="16">
-        <v>45561.0</v>
+        <v>45561</v>
       </c>
       <c r="B3" s="18">
         <v>1210.95</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="16">
-        <v>45560.0</v>
+        <v>45560</v>
       </c>
       <c r="B4" s="18">
         <v>1209.79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="16">
-        <v>45559.0</v>
+        <v>45559</v>
       </c>
       <c r="B5" s="18">
-        <v>1202.13</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1202.1300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="16">
-        <v>45558.0</v>
+        <v>45558</v>
       </c>
       <c r="B6" s="18">
         <v>1204.57</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="16">
-        <v>45555.0</v>
+        <v>45555</v>
       </c>
       <c r="B7" s="18">
-        <v>1200.1</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1200.0999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="16">
-        <v>45554.0</v>
+        <v>45554</v>
       </c>
       <c r="B8" s="18">
         <v>1197.74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="16">
-        <v>45553.0</v>
+        <v>45553</v>
       </c>
       <c r="B9" s="18">
         <v>1206.72</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="16">
-        <v>45552.0</v>
+        <v>45552</v>
       </c>
       <c r="B10" s="18">
         <v>1214.04</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="16">
-        <v>45551.0</v>
+        <v>45551</v>
       </c>
       <c r="B11" s="18">
         <v>1215.72</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="16">
-        <v>45548.0</v>
+        <v>45548</v>
       </c>
       <c r="B12" s="18">
         <v>1226.53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="16">
-        <v>45547.0</v>
+        <v>45547</v>
       </c>
       <c r="B13" s="18">
         <v>1239.48</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="16">
-        <v>45546.0</v>
+        <v>45546</v>
       </c>
       <c r="B14" s="18">
-        <v>1230.16</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1230.1600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="16">
-        <v>45545.0</v>
+        <v>45545</v>
       </c>
       <c r="B15" s="18">
         <v>1230.44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="16">
-        <v>45544.0</v>
+        <v>45544</v>
       </c>
       <c r="B16" s="18">
         <v>1226.42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45541.0</v>
+        <v>45541</v>
       </c>
       <c r="B17" s="18">
-        <v>1243.87</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1243.8699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45540.0</v>
+        <v>45540</v>
       </c>
       <c r="B18" s="18">
         <v>1258.82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45539.0</v>
+        <v>45539</v>
       </c>
       <c r="B19" s="18">
-        <v>1279.84</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1279.8399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45538.0</v>
+        <v>45538</v>
       </c>
       <c r="B20" s="18">
         <v>1294.46</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="16">
-        <v>45537.0</v>
+        <v>45537</v>
       </c>
       <c r="B21" s="18">
         <v>1285.01</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -8860,198 +8995,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="16">
-        <v>45534.0</v>
+        <v>45534</v>
       </c>
       <c r="B2" s="15">
         <v>1279.96</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="16">
-        <v>45533.0</v>
+        <v>45533</v>
       </c>
       <c r="B3" s="15">
         <v>1271.33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="16">
-        <v>45532.0</v>
+        <v>45532</v>
       </c>
       <c r="B4" s="15">
         <v>1282.19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="16">
-        <v>45531.0</v>
+        <v>45531</v>
       </c>
       <c r="B5" s="15">
         <v>1286.19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="16">
-        <v>45530.0</v>
+        <v>45530</v>
       </c>
       <c r="B6" s="15">
         <v>1288.25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="16">
-        <v>45527.0</v>
+        <v>45527</v>
       </c>
       <c r="B7" s="15">
         <v>1282.7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="16">
-        <v>45526.0</v>
+        <v>45526</v>
       </c>
       <c r="B8" s="15">
         <v>1283.23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="16">
-        <v>45525.0</v>
+        <v>45525</v>
       </c>
       <c r="B9" s="15">
         <v>1291.75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="16">
-        <v>45524.0</v>
+        <v>45524</v>
       </c>
       <c r="B10" s="15">
         <v>1287.82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="16">
-        <v>45523.0</v>
+        <v>45523</v>
       </c>
       <c r="B11" s="15">
-        <v>1290.1</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1290.0999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="16">
-        <v>45520.0</v>
+        <v>45520</v>
       </c>
       <c r="B12" s="15">
         <v>1295.3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="16">
-        <v>45519.0</v>
+        <v>45519</v>
       </c>
       <c r="B13" s="15">
         <v>1276.21</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="16">
-        <v>45518.0</v>
+        <v>45518</v>
       </c>
       <c r="B14" s="15">
         <v>1268.81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="16">
-        <v>45517.0</v>
+        <v>45517</v>
       </c>
       <c r="B15" s="15">
         <v>1272.49</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="16">
-        <v>45516.0</v>
+        <v>45516</v>
       </c>
       <c r="B16" s="15">
-        <v>1284.35</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1284.3499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
-        <v>45513.0</v>
+        <v>45513</v>
       </c>
       <c r="B17" s="15">
         <v>1298.27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="16">
-        <v>45512.0</v>
+        <v>45512</v>
       </c>
       <c r="B18" s="15">
         <v>1310.45</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="16">
-        <v>45511.0</v>
+        <v>45511</v>
       </c>
       <c r="B19" s="15">
         <v>1331.95</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="16">
-        <v>45510.0</v>
+        <v>45510</v>
       </c>
       <c r="B20" s="15">
         <v>1336.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="16">
-        <v>45509.0</v>
+        <v>45509</v>
       </c>
       <c r="B21" s="15">
         <v>1346.09</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="16">
-        <v>45506.0</v>
+        <v>45506</v>
       </c>
       <c r="B22" s="15">
         <v>1334.04</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="16">
-        <v>45505.0</v>
+        <v>45505</v>
       </c>
       <c r="B23" s="15">
-        <v>1300.14</v>
+        <v>1300.1400000000001</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -9059,201 +9195,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="19">
-        <v>45503.0</v>
+        <v>45503</v>
       </c>
       <c r="B2" s="20">
         <v>1267.95</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="19">
-        <v>45502.0</v>
+        <v>45502</v>
       </c>
       <c r="B3" s="20">
         <v>1296.57</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="19">
-        <v>45499.0</v>
+        <v>45499</v>
       </c>
       <c r="B4" s="20">
         <v>1323.15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="19">
-        <v>45498.0</v>
+        <v>45498</v>
       </c>
       <c r="B5" s="20">
         <v>1332.77</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="19">
-        <v>45497.0</v>
+        <v>45497</v>
       </c>
       <c r="B6" s="20">
         <v>1337.51</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="19">
-        <v>45496.0</v>
+        <v>45496</v>
       </c>
       <c r="B7" s="20">
         <v>1324.96</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="19">
-        <v>45495.0</v>
+        <v>45495</v>
       </c>
       <c r="B8" s="20">
         <v>1333.37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="19">
-        <v>45492.0</v>
+        <v>45492</v>
       </c>
       <c r="B9" s="20">
         <v>1331.7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="19">
-        <v>45491.0</v>
+        <v>45491</v>
       </c>
       <c r="B10" s="20">
         <v>1315.29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="19">
-        <v>45490.0</v>
+        <v>45490</v>
       </c>
       <c r="B11" s="20">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="19">
-        <v>45489.0</v>
+        <v>45489</v>
       </c>
       <c r="B12" s="20">
         <v>1278.94</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="19">
-        <v>45488.0</v>
+        <v>45488</v>
       </c>
       <c r="B13" s="20">
         <v>1307.54</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="19">
-        <v>45485.0</v>
+        <v>45485</v>
       </c>
       <c r="B14" s="20">
         <v>1416.22</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="19">
-        <v>45484.0</v>
+        <v>45484</v>
       </c>
       <c r="B15" s="20">
         <v>1403.33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="19">
-        <v>45483.0</v>
+        <v>45483</v>
       </c>
       <c r="B16" s="20">
         <v>1377.39</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="19">
-        <v>45482.0</v>
+        <v>45482</v>
       </c>
       <c r="B17" s="20">
         <v>1386.86</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="19">
-        <v>45481.0</v>
+        <v>45481</v>
       </c>
       <c r="B18" s="20">
         <v>1386.86</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="19">
-        <v>45478.0</v>
+        <v>45478</v>
       </c>
       <c r="B19" s="20">
         <v>1396.24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="19">
-        <v>45477.0</v>
+        <v>45477</v>
       </c>
       <c r="B20" s="20">
         <v>1395.68</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="19">
-        <v>45476.0</v>
+        <v>45476</v>
       </c>
       <c r="B21" s="20">
         <v>1382.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="19">
-        <v>45475.0</v>
+        <v>45475</v>
       </c>
       <c r="B22" s="20">
         <v>1428.46</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="19">
-        <v>45474.0</v>
+        <v>45474</v>
       </c>
       <c r="B23" s="20">
         <v>1413.01</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -9261,177 +9395,177 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45471.0</v>
+        <v>45471</v>
       </c>
       <c r="B2" s="22">
         <v>1347.96</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45470.0</v>
+        <v>45470</v>
       </c>
       <c r="B3" s="22">
         <v>1331.96</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45469.0</v>
+        <v>45469</v>
       </c>
       <c r="B4" s="22">
         <v>1332.13</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45468.0</v>
+        <v>45468</v>
       </c>
       <c r="B5" s="22">
         <v>1308.99</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45467.0</v>
+        <v>45467</v>
       </c>
       <c r="B6" s="22">
         <v>1295.22</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45464.0</v>
+        <v>45464</v>
       </c>
       <c r="B7" s="22">
         <v>1273.81</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45463.0</v>
+        <v>45463</v>
       </c>
       <c r="B8" s="22">
         <v>1273.81</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45462.0</v>
+        <v>45462</v>
       </c>
       <c r="B9" s="22">
         <v>1273.81</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45461.0</v>
+        <v>45461</v>
       </c>
       <c r="B10" s="22">
         <v>1245.49</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45460.0</v>
+        <v>45460</v>
       </c>
       <c r="B11" s="22">
-        <v>1244.64</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>1244.6400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45457.0</v>
+        <v>45457</v>
       </c>
       <c r="B12" s="22">
-        <v>1244.64</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>1244.6400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45456.0</v>
+        <v>45456</v>
       </c>
       <c r="B13" s="22">
-        <v>1241.1</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>1241.0999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45455.0</v>
+        <v>45455</v>
       </c>
       <c r="B14" s="22">
         <v>1278.94</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45454.0</v>
+        <v>45454</v>
       </c>
       <c r="B15" s="22">
-        <v>1273.9</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>1273.9000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45453.0</v>
+        <v>45453</v>
       </c>
       <c r="B16" s="22">
-        <v>1272.63</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>1272.6300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45450.0</v>
+        <v>45450</v>
       </c>
       <c r="B17" s="22">
         <v>1282.33</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45449.0</v>
+        <v>45449</v>
       </c>
       <c r="B18" s="22">
         <v>1272.01</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45448.0</v>
+        <v>45448</v>
       </c>
       <c r="B19" s="22">
-        <v>1283.09</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>1283.0899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45447.0</v>
+        <v>45447</v>
       </c>
       <c r="B20" s="22">
         <v>1280.8</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45446.0</v>
+        <v>45446</v>
       </c>
       <c r="B21" s="22">
-        <v>1269.91</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>1269.9100000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -10401,27 +10535,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -10429,184 +10559,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45453.0</v>
+        <v>45453</v>
       </c>
       <c r="B2" s="22">
-        <v>1272.63</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>1272.6300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45450.0</v>
+        <v>45450</v>
       </c>
       <c r="B3" s="22">
         <v>1282.33</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45449.0</v>
+        <v>45449</v>
       </c>
       <c r="B4" s="22">
         <v>1272.01</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45448.0</v>
+        <v>45448</v>
       </c>
       <c r="B5" s="22">
-        <v>1283.09</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>1283.0899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45447.0</v>
+        <v>45447</v>
       </c>
       <c r="B6" s="22">
         <v>1280.8</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45446.0</v>
+        <v>45446</v>
       </c>
       <c r="B7" s="22">
-        <v>1269.91</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>1269.9100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45443.0</v>
+        <v>45443</v>
       </c>
       <c r="B8" s="22">
         <v>1215.93</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45442.0</v>
+        <v>45442</v>
       </c>
       <c r="B9" s="22">
         <v>1182.71</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45441.0</v>
+        <v>45441</v>
       </c>
       <c r="B10" s="22">
-        <v>1177.14</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>1177.1400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45440.0</v>
+        <v>45440</v>
       </c>
       <c r="B11" s="22">
-        <v>1200.9</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>1200.9000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45439.0</v>
+        <v>45439</v>
       </c>
       <c r="B12" s="22">
         <v>1228.18</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45436.0</v>
+        <v>45436</v>
       </c>
       <c r="B13" s="22">
         <v>1205.73</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45435.0</v>
+        <v>45435</v>
       </c>
       <c r="B14" s="22">
-        <v>1234.4</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>1234.4000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45434.0</v>
+        <v>45434</v>
       </c>
       <c r="B15" s="22">
-        <v>1230.6</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>1230.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45433.0</v>
+        <v>45433</v>
       </c>
       <c r="B16" s="22">
         <v>1170.28</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45432.0</v>
+        <v>45432</v>
       </c>
       <c r="B17" s="22">
         <v>1106.22</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="B18" s="22">
-        <v>1071.12</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>1071.1199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45428.0</v>
+        <v>45428</v>
       </c>
       <c r="B19" s="22">
         <v>1062.25</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45427.0</v>
+        <v>45427</v>
       </c>
       <c r="B20" s="22">
         <v>1050.33</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45426.0</v>
+        <v>45426</v>
       </c>
       <c r="B21" s="22">
-        <v>1041.65</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>1041.6500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="21">
-        <v>45425.0</v>
+        <v>45425</v>
       </c>
       <c r="B22" s="22">
-        <v>1034.89</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>1034.8900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -11576,27 +11706,23 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.63"/>
+    <col min="1" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -11604,177 +11730,177 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="21">
-        <v>45422.0</v>
+        <v>45422</v>
       </c>
       <c r="B2" s="22">
         <v>1035.73</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="21">
-        <v>45421.0</v>
+        <v>45421</v>
       </c>
       <c r="B3" s="22">
         <v>1046.02</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="21">
-        <v>45420.0</v>
+        <v>45420</v>
       </c>
       <c r="B4" s="22">
         <v>1038.77</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="21">
-        <v>45419.0</v>
+        <v>45419</v>
       </c>
       <c r="B5" s="22">
         <v>1048.49</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="21">
-        <v>45418.0</v>
+        <v>45418</v>
       </c>
       <c r="B6" s="22">
         <v>1064.47</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="21">
-        <v>45415.0</v>
+        <v>45415</v>
       </c>
       <c r="B7" s="22">
-        <v>1072.64</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>1072.6400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="21">
-        <v>45414.0</v>
+        <v>45414</v>
       </c>
       <c r="B8" s="22">
         <v>1064.56</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="21">
-        <v>45413.0</v>
+        <v>45413</v>
       </c>
       <c r="B9" s="22">
-        <v>1040.89</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>1040.8900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="21">
-        <v>45412.0</v>
+        <v>45412</v>
       </c>
       <c r="B10" s="22">
-        <v>1040.89</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>1040.8900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="21">
-        <v>45411.0</v>
+        <v>45411</v>
       </c>
       <c r="B11" s="22">
         <v>1037.77</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="21">
-        <v>45408.0</v>
+        <v>45408</v>
       </c>
       <c r="B12" s="22">
         <v>1034.04</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="21">
-        <v>45407.0</v>
+        <v>45407</v>
       </c>
       <c r="B13" s="22">
         <v>1034.06</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="21">
-        <v>45406.0</v>
+        <v>45406</v>
       </c>
       <c r="B14" s="22">
         <v>1015.54</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="21">
-        <v>45405.0</v>
+        <v>45405</v>
       </c>
       <c r="B15" s="22">
         <v>1006.71</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="21">
-        <v>45404.0</v>
+        <v>45404</v>
       </c>
       <c r="B16" s="22">
         <v>1014.98</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="21">
-        <v>45401.0</v>
+        <v>45401</v>
       </c>
       <c r="B17" s="22">
-        <v>1026.65</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>1026.6500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="21">
-        <v>45400.0</v>
+        <v>45400</v>
       </c>
       <c r="B18" s="22">
         <v>1021.92</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="21">
-        <v>45399.0</v>
+        <v>45399</v>
       </c>
       <c r="B19" s="22">
         <v>1021.16</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="21">
-        <v>45398.0</v>
+        <v>45398</v>
       </c>
       <c r="B20" s="22">
-        <v>1031.63</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>1031.6300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="21">
-        <v>45397.0</v>
+        <v>45397</v>
       </c>
       <c r="B21" s="22">
         <v>1021.55</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -12744,9 +12870,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>